--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Saa1-Cd36.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Saa1-Cd36.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Saa1</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -549,10 +549,10 @@
         <v>0.031334</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.2972667849383817</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.2972667849383817</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>428.2238463333333</v>
+        <v>306.3285573333333</v>
       </c>
       <c r="N2">
-        <v>1284.671539</v>
+        <v>918.985672</v>
       </c>
       <c r="O2">
-        <v>0.6593892347944894</v>
+        <v>0.3339256162712134</v>
       </c>
       <c r="P2">
-        <v>0.6593892347944894</v>
+        <v>0.3339256162712134</v>
       </c>
       <c r="Q2">
-        <v>4.472655333669556</v>
+        <v>3.199499671827555</v>
       </c>
       <c r="R2">
-        <v>40.253898003026</v>
+        <v>28.795497046448</v>
       </c>
       <c r="S2">
-        <v>0.6593892347944894</v>
+        <v>0.09926499435751134</v>
       </c>
       <c r="T2">
-        <v>0.6593892347944894</v>
+        <v>0.09926499435751136</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -611,10 +611,10 @@
         <v>0.031334</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.2972667849383817</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.2972667849383817</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,10 +629,10 @@
         <v>1.128831</v>
       </c>
       <c r="O3">
-        <v>0.0005794002487839798</v>
+        <v>0.0004101756956892469</v>
       </c>
       <c r="P3">
-        <v>0.0005794002487839798</v>
+        <v>0.0004101756956892469</v>
       </c>
       <c r="Q3">
         <v>0.003930087839333333</v>
@@ -641,10 +641,10 @@
         <v>0.035370790554</v>
       </c>
       <c r="S3">
-        <v>0.0005794002487839798</v>
+        <v>0.0001219316103174064</v>
       </c>
       <c r="T3">
-        <v>0.0005794002487839798</v>
+        <v>0.0001219316103174064</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -673,10 +673,10 @@
         <v>0.031334</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.2972667849383817</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.2972667849383817</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>76.72111133333333</v>
+        <v>68.47330866666667</v>
       </c>
       <c r="N4">
-        <v>230.163334</v>
+        <v>205.419926</v>
       </c>
       <c r="O4">
-        <v>0.1181369868302255</v>
+        <v>0.07464205098503109</v>
       </c>
       <c r="P4">
-        <v>0.1181369868302255</v>
+        <v>0.07464205098503107</v>
       </c>
       <c r="Q4">
-        <v>0.8013264341728887</v>
+        <v>0.7151808845871112</v>
       </c>
       <c r="R4">
-        <v>7.211937907556</v>
+        <v>6.436627961284</v>
       </c>
       <c r="S4">
-        <v>0.1181369868302255</v>
+        <v>0.02218860251752695</v>
       </c>
       <c r="T4">
-        <v>0.1181369868302255</v>
+        <v>0.02218860251752695</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -735,10 +735,10 @@
         <v>0.031334</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.2972667849383817</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.2972667849383817</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.71418433333333</v>
+        <v>17.35615233333333</v>
       </c>
       <c r="N5">
-        <v>68.14255299999999</v>
+        <v>52.068457</v>
       </c>
       <c r="O5">
-        <v>0.03497583975012693</v>
+        <v>0.01891976351946451</v>
       </c>
       <c r="P5">
-        <v>0.03497583975012693</v>
+        <v>0.01891976351946451</v>
       </c>
       <c r="Q5">
-        <v>0.2372420839668889</v>
+        <v>0.1812792257375556</v>
       </c>
       <c r="R5">
-        <v>2.135178755702</v>
+        <v>1.631513031638</v>
       </c>
       <c r="S5">
-        <v>0.03497583975012693</v>
+        <v>0.005624217273225695</v>
       </c>
       <c r="T5">
-        <v>0.03497583975012693</v>
+        <v>0.005624217273225695</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -797,10 +797,10 @@
         <v>0.031334</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.2972667849383817</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.2972667849383817</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>55.09903466666666</v>
+        <v>58.04899466666667</v>
       </c>
       <c r="N6">
-        <v>165.297104</v>
+        <v>174.146984</v>
       </c>
       <c r="O6">
-        <v>0.08484280036681434</v>
+        <v>0.06327861328612003</v>
       </c>
       <c r="P6">
-        <v>0.08484280036681434</v>
+        <v>0.06327861328612001</v>
       </c>
       <c r="Q6">
-        <v>0.5754910507484444</v>
+        <v>0.6063023996284445</v>
       </c>
       <c r="R6">
-        <v>5.179419456735999</v>
+        <v>5.456721596656</v>
       </c>
       <c r="S6">
-        <v>0.08484280036681434</v>
+        <v>0.01881062992692406</v>
       </c>
       <c r="T6">
-        <v>0.08484280036681434</v>
+        <v>0.01881062992692406</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -859,10 +859,10 @@
         <v>0.031334</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0.2972667849383817</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.2972667849383817</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,772 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>66.29053499999999</v>
+        <v>466.7723796666667</v>
       </c>
       <c r="N7">
-        <v>198.871605</v>
+        <v>1400.317139</v>
       </c>
       <c r="O7">
-        <v>0.1020757380095598</v>
+        <v>0.5088237802424818</v>
       </c>
       <c r="P7">
-        <v>0.1020757380095598</v>
+        <v>0.5088237802424818</v>
       </c>
       <c r="Q7">
-        <v>0.6923825412299999</v>
+        <v>4.875281914825112</v>
       </c>
       <c r="R7">
-        <v>6.23144287107</v>
+        <v>43.87753723342601</v>
       </c>
       <c r="S7">
-        <v>0.1020757380095598</v>
+        <v>0.1512564092528762</v>
       </c>
       <c r="T7">
-        <v>0.1020757380095598</v>
+        <v>0.1512564092528762</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.002218</v>
+      </c>
+      <c r="H8">
+        <v>0.006654</v>
+      </c>
+      <c r="I8">
+        <v>0.06312673731346115</v>
+      </c>
+      <c r="J8">
+        <v>0.06312673731346116</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>306.3285573333333</v>
+      </c>
+      <c r="N8">
+        <v>918.985672</v>
+      </c>
+      <c r="O8">
+        <v>0.3339256162712134</v>
+      </c>
+      <c r="P8">
+        <v>0.3339256162712134</v>
+      </c>
+      <c r="Q8">
+        <v>0.6794367401653333</v>
+      </c>
+      <c r="R8">
+        <v>6.114930661488001</v>
+      </c>
+      <c r="S8">
+        <v>0.02107963466058851</v>
+      </c>
+      <c r="T8">
+        <v>0.02107963466058852</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.002218</v>
+      </c>
+      <c r="H9">
+        <v>0.006654</v>
+      </c>
+      <c r="I9">
+        <v>0.06312673731346115</v>
+      </c>
+      <c r="J9">
+        <v>0.06312673731346116</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.376277</v>
+      </c>
+      <c r="N9">
+        <v>1.128831</v>
+      </c>
+      <c r="O9">
+        <v>0.0004101756956892469</v>
+      </c>
+      <c r="P9">
+        <v>0.0004101756956892469</v>
+      </c>
+      <c r="Q9">
+        <v>0.0008345823859999999</v>
+      </c>
+      <c r="R9">
+        <v>0.007511241474</v>
+      </c>
+      <c r="S9">
+        <v>2.589305339414127E-05</v>
+      </c>
+      <c r="T9">
+        <v>2.589305339414127E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.002218</v>
+      </c>
+      <c r="H10">
+        <v>0.006654</v>
+      </c>
+      <c r="I10">
+        <v>0.06312673731346115</v>
+      </c>
+      <c r="J10">
+        <v>0.06312673731346116</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>68.47330866666667</v>
+      </c>
+      <c r="N10">
+        <v>205.419926</v>
+      </c>
+      <c r="O10">
+        <v>0.07464205098503109</v>
+      </c>
+      <c r="P10">
+        <v>0.07464205098503107</v>
+      </c>
+      <c r="Q10">
+        <v>0.1518737986226667</v>
+      </c>
+      <c r="R10">
+        <v>1.366864187604</v>
+      </c>
+      <c r="S10">
+        <v>0.004711909145070031</v>
+      </c>
+      <c r="T10">
+        <v>0.004711909145070032</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.002218</v>
+      </c>
+      <c r="H11">
+        <v>0.006654</v>
+      </c>
+      <c r="I11">
+        <v>0.06312673731346115</v>
+      </c>
+      <c r="J11">
+        <v>0.06312673731346116</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>17.35615233333333</v>
+      </c>
+      <c r="N11">
+        <v>52.068457</v>
+      </c>
+      <c r="O11">
+        <v>0.01891976351946451</v>
+      </c>
+      <c r="P11">
+        <v>0.01891976351946451</v>
+      </c>
+      <c r="Q11">
+        <v>0.03849594587533333</v>
+      </c>
+      <c r="R11">
+        <v>0.346463512878</v>
+      </c>
+      <c r="S11">
+        <v>0.001194342941726041</v>
+      </c>
+      <c r="T11">
+        <v>0.001194342941726041</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.002218</v>
+      </c>
+      <c r="H12">
+        <v>0.006654</v>
+      </c>
+      <c r="I12">
+        <v>0.06312673731346115</v>
+      </c>
+      <c r="J12">
+        <v>0.06312673731346116</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>58.04899466666667</v>
+      </c>
+      <c r="N12">
+        <v>174.146984</v>
+      </c>
+      <c r="O12">
+        <v>0.06327861328612003</v>
+      </c>
+      <c r="P12">
+        <v>0.06327861328612001</v>
+      </c>
+      <c r="Q12">
+        <v>0.1287526701706667</v>
+      </c>
+      <c r="R12">
+        <v>1.158774031536</v>
+      </c>
+      <c r="S12">
+        <v>0.003994572398472992</v>
+      </c>
+      <c r="T12">
+        <v>0.003994572398472992</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.002218</v>
+      </c>
+      <c r="H13">
+        <v>0.006654</v>
+      </c>
+      <c r="I13">
+        <v>0.06312673731346115</v>
+      </c>
+      <c r="J13">
+        <v>0.06312673731346116</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>466.7723796666667</v>
+      </c>
+      <c r="N13">
+        <v>1400.317139</v>
+      </c>
+      <c r="O13">
+        <v>0.5088237802424818</v>
+      </c>
+      <c r="P13">
+        <v>0.5088237802424818</v>
+      </c>
+      <c r="Q13">
+        <v>1.035301138100667</v>
+      </c>
+      <c r="R13">
+        <v>9.317710242906001</v>
+      </c>
+      <c r="S13">
+        <v>0.03212038511420943</v>
+      </c>
+      <c r="T13">
+        <v>0.03212038511420943</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.022473</v>
+      </c>
+      <c r="H14">
+        <v>0.06741900000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.6396064777481572</v>
+      </c>
+      <c r="J14">
+        <v>0.6396064777481572</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>306.3285573333333</v>
+      </c>
+      <c r="N14">
+        <v>918.985672</v>
+      </c>
+      <c r="O14">
+        <v>0.3339256162712134</v>
+      </c>
+      <c r="P14">
+        <v>0.3339256162712134</v>
+      </c>
+      <c r="Q14">
+        <v>6.884121668952001</v>
+      </c>
+      <c r="R14">
+        <v>61.957095020568</v>
+      </c>
+      <c r="S14">
+        <v>0.2135809872531135</v>
+      </c>
+      <c r="T14">
+        <v>0.2135809872531135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.022473</v>
+      </c>
+      <c r="H15">
+        <v>0.06741900000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.6396064777481572</v>
+      </c>
+      <c r="J15">
+        <v>0.6396064777481572</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.376277</v>
+      </c>
+      <c r="N15">
+        <v>1.128831</v>
+      </c>
+      <c r="O15">
+        <v>0.0004101756956892469</v>
+      </c>
+      <c r="P15">
+        <v>0.0004101756956892469</v>
+      </c>
+      <c r="Q15">
+        <v>0.008456073021</v>
+      </c>
+      <c r="R15">
+        <v>0.076104657189</v>
+      </c>
+      <c r="S15">
+        <v>0.0002623510319776992</v>
+      </c>
+      <c r="T15">
+        <v>0.0002623510319776992</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.022473</v>
+      </c>
+      <c r="H16">
+        <v>0.06741900000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.6396064777481572</v>
+      </c>
+      <c r="J16">
+        <v>0.6396064777481572</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>68.47330866666667</v>
+      </c>
+      <c r="N16">
+        <v>205.419926</v>
+      </c>
+      <c r="O16">
+        <v>0.07464205098503109</v>
+      </c>
+      <c r="P16">
+        <v>0.07464205098503107</v>
+      </c>
+      <c r="Q16">
+        <v>1.538800665666</v>
+      </c>
+      <c r="R16">
+        <v>13.849205990994</v>
+      </c>
+      <c r="S16">
+        <v>0.0477415393224341</v>
+      </c>
+      <c r="T16">
+        <v>0.04774153932243409</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.022473</v>
+      </c>
+      <c r="H17">
+        <v>0.06741900000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.6396064777481572</v>
+      </c>
+      <c r="J17">
+        <v>0.6396064777481572</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>17.35615233333333</v>
+      </c>
+      <c r="N17">
+        <v>52.068457</v>
+      </c>
+      <c r="O17">
+        <v>0.01891976351946451</v>
+      </c>
+      <c r="P17">
+        <v>0.01891976351946451</v>
+      </c>
+      <c r="Q17">
+        <v>0.3900448113870001</v>
+      </c>
+      <c r="R17">
+        <v>3.510403302483001</v>
+      </c>
+      <c r="S17">
+        <v>0.01210120330451277</v>
+      </c>
+      <c r="T17">
+        <v>0.01210120330451277</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.022473</v>
+      </c>
+      <c r="H18">
+        <v>0.06741900000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.6396064777481572</v>
+      </c>
+      <c r="J18">
+        <v>0.6396064777481572</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>58.04899466666667</v>
+      </c>
+      <c r="N18">
+        <v>174.146984</v>
+      </c>
+      <c r="O18">
+        <v>0.06327861328612003</v>
+      </c>
+      <c r="P18">
+        <v>0.06327861328612001</v>
+      </c>
+      <c r="Q18">
+        <v>1.304535057144</v>
+      </c>
+      <c r="R18">
+        <v>11.740815514296</v>
+      </c>
+      <c r="S18">
+        <v>0.04047341096072297</v>
+      </c>
+      <c r="T18">
+        <v>0.04047341096072296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.022473</v>
+      </c>
+      <c r="H19">
+        <v>0.06741900000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.6396064777481572</v>
+      </c>
+      <c r="J19">
+        <v>0.6396064777481572</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>466.7723796666667</v>
+      </c>
+      <c r="N19">
+        <v>1400.317139</v>
+      </c>
+      <c r="O19">
+        <v>0.5088237802424818</v>
+      </c>
+      <c r="P19">
+        <v>0.5088237802424818</v>
+      </c>
+      <c r="Q19">
+        <v>10.489775688249</v>
+      </c>
+      <c r="R19">
+        <v>94.40798119424103</v>
+      </c>
+      <c r="S19">
+        <v>0.3254469858753961</v>
+      </c>
+      <c r="T19">
+        <v>0.3254469858753961</v>
       </c>
     </row>
   </sheetData>
